--- a/TRenesasAll_105H/Task.xlsx
+++ b/TRenesasAll_105H/Task.xlsx
@@ -1858,7 +1858,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>72V831L15TFI9</t>
+          <t>71V67602S150BGG8</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1875,7 +1875,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>72V831L20PF8</t>
+          <t>71V67602S150BGI</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1892,7 +1892,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>72V831L20PF9</t>
+          <t>71V67602S150PFGI</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1909,7 +1909,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>72V831L20TF8</t>
+          <t>71V67602S150PFGI8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1926,7 +1926,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>72V831L20TF9</t>
+          <t>71V67602S150PFI</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1943,7 +1943,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>72V835L10PF</t>
+          <t>71V67602S166BGG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>72V835L10PF9</t>
+          <t>71V67602S166BQG</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>72V835L15PF</t>
+          <t>71V67602S166PFG</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1994,7 +1994,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>72V835L15PF8</t>
+          <t>71V67602S166PFG8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2011,7 +2011,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>72V835L15PF9</t>
+          <t>71V67603S133BG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2028,7 +2028,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>72V835L15PFI8</t>
+          <t>71V67603S133BG8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2045,7 +2045,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>72V835L15PFI9</t>
+          <t>71V67603S133BGG</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2062,7 +2062,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>72V835L20PF8</t>
+          <t>71V67603S133BGG8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2079,7 +2079,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>72V835L20PF9</t>
+          <t>71V67603S133BGGI</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2096,7 +2096,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>72V83L12PAG</t>
+          <t>71V67603S133BGGI8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2113,7 +2113,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>72V83L12PAG8</t>
+          <t>71V67603S133BGI</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>72V83L15PA8</t>
+          <t>71V67603S133BGI8</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2147,7 +2147,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>72V83L15PAG</t>
+          <t>71V67603S133BQ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>72V83L15PAG8</t>
+          <t>71V67603S133BQ8</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>72V83L20PA8</t>
+          <t>71V67603S133BQG</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>72V83L20PAGI</t>
+          <t>71V67603S133BQGI</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2215,7 +2215,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>72V83L20PAGI8</t>
+          <t>71V67603S133BQGI8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2232,7 +2232,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>72V841L10PF</t>
+          <t>71V67603S133BQI</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2249,7 +2249,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>72V841L10PF8</t>
+          <t>71V67603S133BQI8</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2266,7 +2266,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>72V841L10PF9</t>
+          <t>71V67603S133PF</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2283,7 +2283,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>72V841L10PFG</t>
+          <t>71V67603S133PFG8</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2300,7 +2300,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>72V841L10PFG8</t>
+          <t>71V67603S133PFGI</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2317,7 +2317,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>72V841L10TF</t>
+          <t>71V67603S133PFGI8</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2334,7 +2334,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>72V841L10TF8</t>
+          <t>71V67603S150BG</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2351,7 +2351,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>72V841L10TF9</t>
+          <t>71V67603S150BG8</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>72V841L10TFG</t>
+          <t>71V67603S150BGG8</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>72V841L10TFG8</t>
+          <t>71V67603S150BGGI8</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2402,7 +2402,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>72V841L10TFI</t>
+          <t>71V67603S150BGI</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2419,7 +2419,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>72V841L10TFI8</t>
+          <t>71V67603S150BQ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2436,7 +2436,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>72V841L15PF</t>
+          <t>71V67603S150BQ8</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2453,7 +2453,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>72V841L15PF8</t>
+          <t>71V67603S150BQG</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2470,7 +2470,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>72V841L15PF9</t>
+          <t>71V67603S150BQG8</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2487,7 +2487,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>72V841L15PFG</t>
+          <t>71V67603S150BQI</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2504,7 +2504,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>72V841L15PFG8</t>
+          <t>71V67603S150BQI8</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2521,7 +2521,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>72V841L15PFI</t>
+          <t>71V67603S150PF</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2538,7 +2538,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>72V841L15PFI8</t>
+          <t>71V67603S150PFG</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2555,7 +2555,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>72V841L15PFI9</t>
+          <t>71V67603S150PFGI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>72V841L15TF</t>
+          <t>71V67603S150PFGI8</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>72V841L15TF8</t>
+          <t>71V67603S150PFI</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2606,7 +2606,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>72V841L15TF9</t>
+          <t>71V67603S166BQ</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2623,7 +2623,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>72V841L15TFGI</t>
+          <t>71V67603S166BQ8</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2640,7 +2640,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>72V841L15TFGI8</t>
+          <t>71V67603S166BQG</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2657,7 +2657,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>72V841L15TFI</t>
+          <t>71V67603S166BQG8</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2674,7 +2674,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>72V841L15TFI8</t>
+          <t>71V67603S166PF</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2691,7 +2691,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>72V841L15TFI9</t>
+          <t>71V67603S166PF8</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2708,7 +2708,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>72V841L20PF</t>
+          <t>71V67603S166PFG</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2725,7 +2725,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>72V841L20PF8</t>
+          <t>71V67603S166PFG8</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2742,7 +2742,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>72V841L20PF9</t>
+          <t>71V67603S166PFGI</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2759,7 +2759,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>72V841L20TF</t>
+          <t>71V67603S166PFGI8</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2776,7 +2776,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>72V841L20TF8</t>
+          <t>71V67603Z5S166PFG</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>72V841L20TF9</t>
+          <t>71V67603ZS133PF</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2810,7 +2810,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>72V841L20TFGI</t>
+          <t>71V67603ZS133PFG</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2827,7 +2827,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>72V841L20TFGI8</t>
+          <t>71V67703S75BG</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2844,7 +2844,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>72V841L20TFI</t>
+          <t>71V67703S75BGG</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2861,7 +2861,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>72V841L20TFI8</t>
+          <t>71V67703S75BGG8</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2878,7 +2878,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>72V845L10PF</t>
+          <t>71V67703S75BGGI</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2895,7 +2895,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>72V845L10PF8</t>
+          <t>71V67703S75BGGI8</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2912,7 +2912,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>72V845L10PF9</t>
+          <t>71V67703S75BQ</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2929,7 +2929,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>72V845L10PFG</t>
+          <t>71V67703S75BQ8</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2946,7 +2946,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>72V845L10PFG8</t>
+          <t>71V67703S75BQG</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2963,7 +2963,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>72V845L10PFI</t>
+          <t>71V67703S75BQG8</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2980,7 +2980,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>72V845L10PFI8</t>
+          <t>71V67703S75BQGI</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2997,7 +2997,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>72V845L15PF</t>
+          <t>71V67703S75BQGI8</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3014,7 +3014,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>72V845L15PF8</t>
+          <t>71V67703S75PFG</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3031,7 +3031,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>72V845L15PF9</t>
+          <t>71V67703S75PFG8</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3048,7 +3048,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>72V845L15PFGI</t>
+          <t>71V67703S75PFGI</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3065,7 +3065,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>72V845L15PFGI8</t>
+          <t>71V67703S75PFGI8</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3082,7 +3082,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>72V845L15PFI</t>
+          <t>71V67703S80BG</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3099,7 +3099,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>72V845L15PFI8</t>
+          <t>71V67703S80BG8</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3116,7 +3116,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>72V845L15PFI9</t>
+          <t>71V67703S80BGG</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3133,7 +3133,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>72V845L20PF</t>
+          <t>71V67703S80BGG8</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3150,7 +3150,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>72V845L20PF8</t>
+          <t>71V67703S80BGGI</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3167,7 +3167,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>72V845L20PF9</t>
+          <t>71V67703S80BGGI8</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3184,7 +3184,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>72V84L15PA</t>
+          <t>71V67703S80BQ</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3201,7 +3201,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>72V84L15PA8</t>
+          <t>71V67703S80BQ8</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3218,7 +3218,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>72V84L15PAG8</t>
+          <t>71V67703S80BQG</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3235,7 +3235,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>72V84L20PA</t>
+          <t>71V67703S80BQG8</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3252,7 +3252,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>72V84L20PA8</t>
+          <t>71V67703S80BQGI</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3269,7 +3269,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>72V851L10PF</t>
+          <t>71V67703S80BQGI8</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3286,7 +3286,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>72V851L10PFG</t>
+          <t>71V67703S80BQI</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3303,7 +3303,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>72V851L10PFG8</t>
+          <t>71V67703S80BQI8</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3320,7 +3320,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>72V851L10TF8</t>
+          <t>71V67703S80PF</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3337,7 +3337,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>72V851L15PFI</t>
+          <t>71V67703S80PFG</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3354,7 +3354,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>72V851L20PF8</t>
+          <t>71V67703S80PFGI</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3371,7 +3371,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>72V90823BCG</t>
+          <t>71V67703S80PFGI8</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3388,7 +3388,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>72V90823PF</t>
+          <t>71V67703S85BG</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3405,7 +3405,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>72V90823PF8</t>
+          <t>71V67703S85BG8</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3422,7 +3422,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>72V90823PFG</t>
+          <t>71V67703S85BGG</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3439,7 +3439,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>72V90823PQF</t>
+          <t>71V67703S85BGG8</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3456,7 +3456,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>72V90823PQFG</t>
+          <t>71V67703S85BGGI</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3473,7 +3473,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>74ALVC162244PA</t>
+          <t>71V67703S85BQ</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3490,7 +3490,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>74ALVC162244PAG</t>
+          <t>71V67703S85BQG</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3507,7 +3507,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>74ALVC162244PAG8</t>
+          <t>71V67703S85BQG8</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3524,7 +3524,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>74ALVC162245PA</t>
+          <t>71V67703S85BQGI</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3541,7 +3541,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>74ALVC162245PAG</t>
+          <t>71V67703S85BQI</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3558,7 +3558,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>74ALVC162245PAG8</t>
+          <t>71V67703S85BQI8</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3575,7 +3575,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>74ALVC162245PV</t>
+          <t>71V67703S85PFG</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3592,7 +3592,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>74ALVC16245PAG</t>
+          <t>71V67703S85PFG8</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3609,7 +3609,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>74ALVC16245PAG8</t>
+          <t>71V67703S85PFGI</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3626,7 +3626,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>74ALVC164245PAG8</t>
+          <t>71V67703S85PFGI8</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3643,7 +3643,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>74ALVC164245PVG8</t>
+          <t>71V67803S133BG</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3660,7 +3660,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>74ALVC164245XE4PA</t>
+          <t>71V67803S133BGG</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3677,7 +3677,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>74ALVCH162244PA</t>
+          <t>71V67803S133BGG8</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3694,7 +3694,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>74ALVCH162244PAG</t>
+          <t>71V67803S133BQ</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3711,7 +3711,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>74ALVCH162244PAG8</t>
+          <t>71V67803S133BQG</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3728,7 +3728,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>74ALVCH162244PV</t>
+          <t>71V67803S133BQG8</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3745,7 +3745,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>74ALVCH162373A4PA</t>
+          <t>71V67803S133BQGI8</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3762,7 +3762,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>74ALVCH162373PAG</t>
+          <t>71V67803S133BQI</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3779,7 +3779,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>74ALVCH162373PAG8</t>
+          <t>71V67803S133PFG</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3796,7 +3796,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>74ALVCH32244BF</t>
+          <t>71V67803S133PFG8</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3813,7 +3813,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>74ALVCH32244BF8</t>
+          <t>71V67803S133PFGI</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3830,7 +3830,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>74ALVCH32244BFG</t>
+          <t>71V67803S133PFGI8</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3847,7 +3847,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>74ALVCH32244BFG8</t>
+          <t>71V67803S150BG</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3864,7 +3864,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>74CBTLV16210PAG</t>
+          <t>71V67803S150BG8</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3881,7 +3881,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>74CBTLV16210PAG8</t>
+          <t>71V67803S150BQ8</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3898,7 +3898,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>74CBTLV16211PAG</t>
+          <t>71V67803S150BQI</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3915,7 +3915,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>74CBTLV16211PAG8</t>
+          <t>71V67803S150BQI8</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3932,7 +3932,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>74CBTLV16211PFG8</t>
+          <t>71V67803S150PF</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3949,7 +3949,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>74CBTLV16212PA</t>
+          <t>71V67803S150PFG</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3966,7 +3966,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>74CBTLV16212PAG</t>
+          <t>71V67803S150PFG8</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3983,7 +3983,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>74CBTLV16212PAG8</t>
+          <t>71V67803S150PFGI</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4000,7 +4000,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>74CBTLV16245PA</t>
+          <t>71V67803S166BG8</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4017,7 +4017,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>74CBTLV16245PAG</t>
+          <t>71V67803S166BQ</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4034,7 +4034,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>74CBTLV16245PAG8</t>
+          <t>71V67803S166BQG</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4051,7 +4051,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>74CBTLV16292PA</t>
+          <t>71V67803S166BQG8</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4068,7 +4068,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>74CBTLV16292PAG</t>
+          <t>71V67803S166PFG</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4085,7 +4085,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>74CBTLV16292PAG8</t>
+          <t>71V67803S166PFG8</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4102,7 +4102,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>74CBTLV16292PF</t>
+          <t>71V67803S166PFGI</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4119,7 +4119,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>74CBTLV3125PGG8</t>
+          <t>71V67803S166PFGI8</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4136,7 +4136,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>74CBTLV3125QG</t>
+          <t>71V67903S75BG</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4153,7 +4153,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>74CBTLV3125QG8</t>
+          <t>71V67903S75BQ8</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4170,7 +4170,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>74CBTLV3244PGG</t>
+          <t>71V67903S75BQG</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4187,7 +4187,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>74CBTLV3244PGG8</t>
+          <t>71V67903S75BQI</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4204,7 +4204,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>74CBTLV3244QG</t>
+          <t>71V67903S75BQI8</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4221,7 +4221,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>74CBTLV3244QG8</t>
+          <t>71V67903S75PFG</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4238,7 +4238,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>74CBTLV3245PGG</t>
+          <t>71V67903S75PFG8</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4255,7 +4255,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>74CBTLV3245PY</t>
+          <t>71V67903S75PFGI</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4272,7 +4272,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>74CBTLV3245QG</t>
+          <t>71V67903S75PFGI8</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4289,7 +4289,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>74CBTLV3245QG8</t>
+          <t>71V67903S80BG</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4306,7 +4306,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>74CBTLV3251PGG</t>
+          <t>71V67903S80BQ</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4323,7 +4323,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>74CBTLV3251PGG8</t>
+          <t>71V67903S80BQ8</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4340,7 +4340,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>74CBTLV3251Q</t>
+          <t>71V67903S80BQI</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4357,7 +4357,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>74CBTLV3251QG</t>
+          <t>71V67903S80BQI8</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4374,7 +4374,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>74CBTLV3251QG8</t>
+          <t>71V67903S80PFG</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4391,7 +4391,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>74CBTLV3253PG</t>
+          <t>71V67903S80PFGI</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4408,7 +4408,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>74CBTLV3253PGG</t>
+          <t>71V67903S85BG8</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4425,7 +4425,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>74CBTLV3253PGG8</t>
+          <t>71V67903S85BQ</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4442,7 +4442,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>74CBTLV3253QG</t>
+          <t>71V67903S85BQ8</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4459,7 +4459,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>74CBTLV3253QG8</t>
+          <t>71V67903S85BQI</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4476,7 +4476,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>74CBTLV3257PGG8</t>
+          <t>71V67903S85BQI8</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4493,7 +4493,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>74CBTLV3257QG</t>
+          <t>71V67903S85PFG</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4510,7 +4510,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>74CBTLV3257QG8</t>
+          <t>71V67903S85PFG8</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4527,7 +4527,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>74CBTLV3257SA4PG</t>
+          <t>71V67903S85PFGI</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4544,7 +4544,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>74CBTLV3257SA4Q</t>
+          <t>71V67903S85PFGI8</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4561,7 +4561,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>74CBTLV3384PGG</t>
+          <t>72005</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4578,7 +4578,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>74CBTLV3384PGG8</t>
+          <t>7200L12J</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4595,7 +4595,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>74CBTLV3384QG</t>
+          <t>7200L12J8</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4612,7 +4612,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>74CBTLV3384QG8</t>
+          <t>7200L12JG8</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4629,7 +4629,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>74CBTLV3861PGG</t>
+          <t>7200L12SO</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4646,7 +4646,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>74CBTLV3861QG</t>
+          <t>7200L12SO8</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4663,7 +4663,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>74CBTLV3861QG8</t>
+          <t>7200L12SOG</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4680,7 +4680,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>74CBTLV3862PGG</t>
+          <t>7200L12SOG8</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4697,7 +4697,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>74CBTLV3862PGG8</t>
+          <t>7200L12SOI8</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4714,7 +4714,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>74CBTLV3862PYG</t>
+          <t>7200L12TP</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4731,7 +4731,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>74CBTLV3862QG</t>
+          <t>7200L12TPG</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4748,7 +4748,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>74CBTLV3862QG8</t>
+          <t>7200L15J</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4765,7 +4765,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>74CBTLV3862SA4PY</t>
+          <t>7200L15J8</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4782,7 +4782,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>74CBTLV3862SQG</t>
+          <t>7200L15JGI</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4799,7 +4799,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>74CBTLV6800PGG</t>
+          <t>7200L15JGI8</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4816,7 +4816,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>74CBTLV6800PGG8</t>
+          <t>7200L15JI8</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4833,7 +4833,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>74CBTLV6800QG</t>
+          <t>7200L15SO</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4850,7 +4850,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>74CBTLV6800QG8</t>
+          <t>7200L15SO8</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4867,7 +4867,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>74CBTLV6800SA4PG</t>
+          <t>7200L15SOGI</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4884,7 +4884,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>74CBTLV6800SA4Q</t>
+          <t>7200L15SOGI8</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4901,7 +4901,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>74FCT162244TPA</t>
+          <t>7200L15SOI</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4918,7 +4918,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>74FCT162244TPF</t>
+          <t>7200L15SOI8</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4935,7 +4935,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>74FCT162244TPV</t>
+          <t>7200L15TP</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4952,7 +4952,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>74FCT162244TPV UM</t>
+          <t>7200L15TPGI</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4969,7 +4969,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>74FCT162245TPA</t>
+          <t>7200L15TPI</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4986,7 +4986,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>74FCT162245TPF</t>
+          <t>7200L20J</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5003,7 +5003,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>74FCT162245TPV8</t>
+          <t>7200L20J8</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -5020,7 +5020,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>74FCT162373TPA</t>
+          <t>7200L20SO</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5037,7 +5037,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>74FCT162373TPF</t>
+          <t>7200L20TP</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -5054,7 +5054,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>74FCT162373TPV</t>
+          <t>7200L25J</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5071,7 +5071,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>74FCT162373TPV8</t>
+          <t>7200L25J8</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -5088,7 +5088,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>74FCT162374TPA</t>
+          <t>7200L25JI</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -5105,7 +5105,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>74FCT162374TPF</t>
+          <t>7200L25JI8</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5122,7 +5122,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>74FCT162374TPV</t>
+          <t>7200L25SO</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -5139,7 +5139,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>74FCT16244TPA</t>
+          <t>7200L25SO8</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -5156,7 +5156,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>74FCT16244TPF</t>
+          <t>7200L25SOI</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -5173,7 +5173,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>74FCT16244TPV</t>
+          <t>7200L25SOI8</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -5190,7 +5190,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>74FCT16245TEB</t>
+          <t>7200L25TPI</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -5207,7 +5207,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>74FCT16245TPA</t>
+          <t>7200L30TDB</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -5224,7 +5224,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>74FCT16245TPF</t>
+          <t>7200L35J</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5241,7 +5241,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>74FCT16245TPV</t>
+          <t>7200L35J8</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5258,7 +5258,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>74FCT163244</t>
+          <t>7200L35SO</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -5275,7 +5275,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>74FCT163244APA</t>
+          <t>7200L35TP</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -5292,7 +5292,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>74FCT163244APAG</t>
+          <t>7200L50J</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -5309,7 +5309,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>74FCT163244APAG8</t>
+          <t>7200L50J8</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -5326,7 +5326,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>74FCT163244APF</t>
+          <t>7200L50SO</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -5343,7 +5343,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>74FCT163244APFG</t>
+          <t>7200L50SO8</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -5360,7 +5360,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>74FCT163244APFG8</t>
+          <t>7200L50TP</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -5377,7 +5377,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>74FCT163244APV</t>
+          <t>7200L65JB</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -5394,7 +5394,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>74FCT163244APVG</t>
+          <t>7200LA20TP</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -5411,7 +5411,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>74FCT163244APVG8</t>
+          <t>72014</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -5428,7 +5428,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>74FCT163244CPA</t>
+          <t>7201L120C</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5445,7 +5445,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>74FCT163244CPAG</t>
+          <t>7201L120CB</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5462,7 +5462,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>74FCT163244CPAG8</t>
+          <t>7201L50C</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5479,7 +5479,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>74FCT163244CPF</t>
+          <t>7201L80P</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5496,7 +5496,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>74FCT163244CPFG8</t>
+          <t>7201LA120PI</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5513,7 +5513,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>74FCT163244CPV</t>
+          <t>7201LA12J</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5530,7 +5530,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>74FCT163244CPV8</t>
+          <t>7201LA12J8</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5547,7 +5547,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>74FCT163244CPVG8</t>
+          <t>7201LA12JG</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5564,7 +5564,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>74FCT163244PA</t>
+          <t>7201LA12JG8</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5581,7 +5581,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>74FCT163244PF</t>
+          <t>7201LA12JI</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5598,7 +5598,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>74FCT163244PV</t>
+          <t>7201LA12P</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5615,7 +5615,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>74FCT163244X4APF</t>
+          <t>7201LA12PDG</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5632,7 +5632,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>74FCT163244X4CPV</t>
+          <t>7201LA12SO</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5649,7 +5649,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>74FCT163245APA</t>
+          <t>7201LA12SO8</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5666,7 +5666,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>74FCT163245APAG</t>
+          <t>7201LA12SOG</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5683,7 +5683,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>74FCT163245APAG8</t>
+          <t>7201LA12SOG8</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5700,7 +5700,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>74FCT163245APF</t>
+          <t>7201LA12TP</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5717,7 +5717,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>74FCT163245APFG</t>
+          <t>7201LA12TPG</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5734,7 +5734,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>74FCT163245APFG8</t>
+          <t>7201LA15J</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5751,7 +5751,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>74FCT163245APV</t>
+          <t>7201LA15J8</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5768,7 +5768,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>74FCT163245APVG</t>
+          <t>7201LA15JG</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5785,7 +5785,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>74FCT163245APVG8</t>
+          <t>7201LA15JGI</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5802,7 +5802,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>74FCT163245CPA</t>
+          <t>7201LA15JI</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5819,7 +5819,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>74FCT163245CPAG</t>
+          <t>7201LA15JI8</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5836,7 +5836,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>74FCT163245CPAG8</t>
+          <t>7201LA15P</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5853,7 +5853,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>74FCT163245CPF</t>
+          <t>7201LA15PI</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5870,7 +5870,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>74FCT163245CPFG8</t>
+          <t>7201LA15SO</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5887,7 +5887,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>74FCT163245CPV</t>
+          <t>7201LA15SO8</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5904,7 +5904,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>74FCT163245CPVG</t>
+          <t>7201LA15SOGI</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5921,7 +5921,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>74FCT163245CPVG8</t>
+          <t>7201LA15SOGI8</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5938,7 +5938,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>74FCT163245PF</t>
+          <t>7201LA15SOI8</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5955,7 +5955,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>74FCT163245X4APA</t>
+          <t>7201LA15TP</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5972,7 +5972,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>74FCT163245X4APF</t>
+          <t>7201LA15TPGI</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5989,7 +5989,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>74FCT163245X4CPA</t>
+          <t>7201LA15TPI</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -6006,7 +6006,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>74FCT163373APAG</t>
+          <t>7201LA20DB</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -6023,7 +6023,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>74FCT163373APAG8</t>
+          <t>7201LA20J</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -6040,7 +6040,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>74FCT163373APVG</t>
+          <t>7201LA20J8</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -6057,7 +6057,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>74FCT163373APVG8</t>
+          <t>7201LA20JI</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -6074,7 +6074,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>74FCT163373CPAG</t>
+          <t>7201LA20JI8</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -6091,7 +6091,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>74FCT163373CPVG</t>
+          <t>7201LA20LB</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -6108,7 +6108,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>74FCT163373CPVG8</t>
+          <t>7201LA20LB8</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -6125,7 +6125,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>74FCT163373PV</t>
+          <t>7201LA20P</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -6142,7 +6142,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>74FCT163374APAG</t>
+          <t>7201LA20SO8</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -6159,7 +6159,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>74FCT163374APAG8</t>
+          <t>7201LA20TDB</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -6176,7 +6176,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>74FCT163374APVG</t>
+          <t>7201LA20TP</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -6193,7 +6193,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>74FCT163374APVG8</t>
+          <t>7201LA25J</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -6210,7 +6210,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>74FCT163374CPAG</t>
+          <t>7201LA25J8</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -6227,7 +6227,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>74FCT163374CPAG8</t>
+          <t>7201LA25JGI</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -6244,7 +6244,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>74FCT163374CPVG</t>
+          <t>7201LA25JGI8</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -6261,7 +6261,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>74FCT163374CPVG8</t>
+          <t>7201LA25JI</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -6278,7 +6278,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>74FCT16373TPA</t>
+          <t>7201LA25P</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -6295,7 +6295,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>74FCT16373TPF</t>
+          <t>7201LA25PI</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -6312,7 +6312,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>74FCT16374TPV</t>
+          <t>7201LA25SO</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -6329,7 +6329,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>74FCT163827APAG</t>
+          <t>7201LA25SO8</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -6346,7 +6346,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>74FCT163827APAG8</t>
+          <t>7201LA25SOI</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -6363,7 +6363,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>74FCT163827CPA</t>
+          <t>7201LA25SOI8</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -6380,7 +6380,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>74FCT163827CPAG</t>
+          <t>7201LA25TP</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -6397,7 +6397,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>74FCT163827CPAG8</t>
+          <t>7201LA25TPI</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -6414,7 +6414,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>74FCT163827X4CPA</t>
+          <t>7201LA30DB</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -6431,7 +6431,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>74FCT164245TPA</t>
+          <t>7201LA30LB</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -6448,7 +6448,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>74FCT164245TPAG</t>
+          <t>7201LA30LB8</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6465,7 +6465,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>74FCT164245TPAG8</t>
+          <t>7201LA30TDB</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -6482,7 +6482,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>74FCT164245TPVG</t>
+          <t>7201LA35D</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -6499,7 +6499,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>74FCT164245TPVG8</t>
+          <t>7201LA35J</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -6516,7 +6516,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>74FCT2244TPG</t>
+          <t>7201LA35J8</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -6533,7 +6533,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>74FCT2244TQ</t>
+          <t>7201LA35JG</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -6550,7 +6550,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>74FCT2244TSO</t>
+          <t>7201LA35JG8</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -6567,7 +6567,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>74FCT2245TPG</t>
+          <t>7201LA35P</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -6584,7 +6584,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>74FCT2245TQ</t>
+          <t>7201LA35PDG</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6601,7 +6601,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>74FCT2245TSO</t>
+          <t>7201LA35SO</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -6618,7 +6618,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>74FCT2373TPG</t>
+          <t>7201LA35SO8</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6635,7 +6635,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>74FCT240TPY</t>
+          <t>7201LA35SOG</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6652,7 +6652,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>74FCT240TQ</t>
+          <t>7201LA35SOG8</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6669,7 +6669,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>74FCT240TSO</t>
+          <t>7201LA35TP</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6686,7 +6686,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>74FCT244TP</t>
+          <t>7201LA40TCB</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6703,7 +6703,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>74FCT244TPY</t>
+          <t>7201LA50D</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -6720,7 +6720,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>74FCT244TQ</t>
+          <t>7201LA50DB</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -6737,7 +6737,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>74FCT244TSO</t>
+          <t>7201LA50J</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6754,7 +6754,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>74FCT245TQ</t>
+          <t>7201LA50J8</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6771,7 +6771,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>74FCT245TSO</t>
+          <t>7201LA50JG</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6788,7 +6788,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>74FCT3244AP</t>
+          <t>7201LA50P</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6805,7 +6805,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>74FCT3244APG</t>
+          <t>7201LA50PDG</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6822,7 +6822,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>74FCT3244APGG</t>
+          <t>7201LA50SO</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6839,7 +6839,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>74FCT3244APY</t>
+          <t>7201LA50SO8</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6856,7 +6856,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>74FCT3244APY8</t>
+          <t>7201LA50TDB</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6873,7 +6873,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>74FCT3244APYG</t>
+          <t>7201LA50TP</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6890,7 +6890,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>74FCT3244APYG8</t>
+          <t>7201LA80DB</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6907,7 +6907,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>74FCT3244AQ</t>
+          <t>7201LA80P</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6924,7 +6924,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>74FCT3244AQG</t>
+          <t>7201S120P FIFO</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -6941,7 +6941,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>74FCT3244AQG8</t>
+          <t>7201SA120J</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -6958,7 +6958,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>74FCT3244ASO</t>
+          <t>7201SA120P</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -6975,7 +6975,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>74FCT3244ASOG</t>
+          <t>7201SA25TC</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -6992,7 +6992,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>74FCT3244ASOG8</t>
+          <t>7201SA-25TP</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -7009,7 +7009,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>74FCT3244P</t>
+          <t>7201SA30LM</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -7026,7 +7026,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>74FCT3244PG</t>
+          <t>7201SA30TDB</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -7043,7 +7043,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>74FCT3244PGG</t>
+          <t>7201SA40DB</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -7060,7 +7060,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>74FCT3244PGG8</t>
+          <t>7201SA50J</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -7077,7 +7077,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>74FCT3244PY</t>
+          <t>7201SA50TDB</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -7094,7 +7094,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>74FCT3244PYG</t>
+          <t>7201SA65TCB</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -7111,7 +7111,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>74FCT3244PYG8</t>
+          <t>7201SA80DB</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -7128,7 +7128,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>74FCT3244Q</t>
+          <t>7201SA80P</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -7145,7 +7145,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>74FCT3244Q8</t>
+          <t>7201SA80TC</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -7162,7 +7162,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>74FCT3244QG</t>
+          <t>72021L25D</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -7179,7 +7179,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>74FCT3244QG8</t>
+          <t>72021L25J</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -7196,7 +7196,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>74FCT3244SOG</t>
+          <t>72021L25J8</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -7213,7 +7213,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>74FCT3244SOG8</t>
+          <t>72021L35J</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -7230,7 +7230,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>74FCT3244ZAPY</t>
+          <t>72021L35J8</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -7247,7 +7247,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>74FCT3244ZAQ</t>
+          <t>72021L50D</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -7264,7 +7264,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>74FCT3244ZASO</t>
+          <t>72021L50DB</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -7281,7 +7281,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>74FCT3244ZPG</t>
+          <t>72021L50J</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -7298,7 +7298,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>74FCT3245APGG</t>
+          <t>72021L50J8</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -7315,7 +7315,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>74FCT3245APGG8</t>
+          <t>72025L15PF8</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -7332,7 +7332,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>74FCT3245AQG</t>
+          <t>72025L15PF9</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -7349,7 +7349,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>74FCT3245AQG8</t>
+          <t>72026</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -7366,7 +7366,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>74FCT3245PGG</t>
+          <t>7202LA12J</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -7383,7 +7383,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>74FCT3245PGG8</t>
+          <t>7202LA12J8</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -7400,7 +7400,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>74FCT3245QG</t>
+          <t>7202LA12JG8</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -7417,7 +7417,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>74FCT3245QG8</t>
+          <t>7202LA12JI</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -7434,7 +7434,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>74FCT3245SO</t>
+          <t>7202LA12JI8</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -7451,7 +7451,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>74FCT373TSO</t>
+          <t>7202LA12P</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -7468,7 +7468,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>74FCT374TLB</t>
+          <t>7202LA12PDG</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -7485,7 +7485,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>74FCT374TQ</t>
+          <t>7202LA12SO8</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -7502,7 +7502,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>74FCT374TSO</t>
+          <t>7202LA12SOG8</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -7519,7 +7519,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>74FCT3807</t>
+          <t>7202LA12TPG</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -7536,7 +7536,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>74FCT38072DCGI8</t>
+          <t>7202LA12TPI</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -7553,7 +7553,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>74FCT38072DCI</t>
+          <t>7202LA15J</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -7570,7 +7570,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>74FCT38072SCMGI</t>
+          <t>7202LA15J8</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -7587,7 +7587,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>74FCT38072SCMGI8</t>
+          <t>7202LA15JGI</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -7604,7 +7604,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>74FCT38072SDCGI8</t>
+          <t>7202LA15JGI8</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -7621,7 +7621,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>74FCT38074DCGI</t>
+          <t>7202LA15JI</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -7638,7 +7638,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>74FCT38074SCMGI</t>
+          <t>7202LA15JI8</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -7655,7 +7655,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>74FCT38074SCMGI8</t>
+          <t>7202LA15P</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -7672,7 +7672,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>74FCT38074SDCGI</t>
+          <t>7202LA15PDGI</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -7689,7 +7689,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>74FCT38074SDCGI8</t>
+          <t>7202LA15PI</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -7706,7 +7706,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>74FCT38075DCGI</t>
+          <t>7202LA15SO</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -7723,7 +7723,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>74FCT38075DCGI8</t>
+          <t>7202LA15SO8</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -7740,7 +7740,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>74FCT38075DCI8</t>
+          <t>7202LA15SOGI</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -7757,7 +7757,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>74FCT38075SCMGI8</t>
+          <t>7202LA15SOI8</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -7774,7 +7774,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>74FCT38075SDCGI8</t>
+          <t>7202LA15TP</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -7791,7 +7791,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>74FCT3807APY</t>
+          <t>7202LA15TPGI</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -7808,7 +7808,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>74FCT3807APY8</t>
+          <t>7202LA20DB</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -7825,7 +7825,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>74FCT3807APYG</t>
+          <t>7202LA20J</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -7842,7 +7842,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>74FCT3807APYG8</t>
+          <t>7202LA20J8</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -7859,7 +7859,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>74FCT3807APYGI8</t>
+          <t>7202LA20JG</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -7876,7 +7876,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>74FCT3807APYT/R</t>
+          <t>7202LA20JI</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -7893,7 +7893,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>74FCT3807AQ</t>
+          <t>7202LA20JI8</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -7910,7 +7910,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>74FCT3807AQ1</t>
+          <t>7202LA20LB</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -7927,7 +7927,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>74FCT3807AQ8</t>
+          <t>7202LA20LB8</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -7944,7 +7944,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>74FCT3807AQG</t>
+          <t>7202LA20P</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -7961,7 +7961,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>74FCT3807AQG8</t>
+          <t>7202LA20SO8</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -7978,7 +7978,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>74FCT3807AQGI</t>
+          <t>7202LA20TDB</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -7995,7 +7995,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>74FCT3807AQGI8</t>
+          <t>7202LA20TP</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -8012,7 +8012,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>74FCT3807AQI</t>
+          <t>7202LA25J</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -8029,7 +8029,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>74FCT3807AQT/R</t>
+          <t>7202LA25J8</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -8046,7 +8046,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>74FCT3807AS0</t>
+          <t>7202LA25JG</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -8063,7 +8063,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>74FCT3807ASO</t>
+          <t>7202LA25JGI</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -8080,7 +8080,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>74FCT3807ASOG</t>
+          <t>7202LA25JGI8</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -8097,7 +8097,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>74FCT3807ASOG8</t>
+          <t>7202LA25JI8</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -8114,7 +8114,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>74FCT3807ASOGI</t>
+          <t>7202LA25P</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -8131,7 +8131,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>74FCT3807ASOGI8</t>
+          <t>7202LA25PI</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -8148,7 +8148,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>74FCT3807ASOI</t>
+          <t>7202LA25SO</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -8165,7 +8165,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>74FCT3807ASOT/R</t>
+          <t>7202LA25SOGI</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -8182,7 +8182,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>74FCT3807DPGGI</t>
+          <t>7202LA25SOI</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -8199,7 +8199,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>74FCT3807DPGGI8</t>
+          <t>7202LA25SOI8</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -8216,7 +8216,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>74FCT3807DPYGI</t>
+          <t>7202LA25TP</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -8233,7 +8233,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>74FCT3807DPYI</t>
+          <t>7202LA25TPI</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -8250,7 +8250,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>74FCT3807DQGI</t>
+          <t>7202LA30DB</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -8267,7 +8267,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>74FCT3807DQI</t>
+          <t>7202LA30LB</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -8284,7 +8284,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>74FCT3807EPGGI</t>
+          <t>7202LA30LB8</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -8301,7 +8301,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>74FCT3807EPGGI8</t>
+          <t>7202LA30TDB</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -8318,7 +8318,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>74FCT3807EPYG8</t>
+          <t>7202LA35J</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -8335,7 +8335,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>74FCT3807EPYG8(8)</t>
+          <t>7202LA35JG</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -8352,7 +8352,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>74FCT3807EPYGI</t>
+          <t>7202LA35P</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -8369,7 +8369,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>74FCT3807EPYGI8</t>
+          <t>7202LA35SO</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -8386,7 +8386,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>74FCT3807EPYI</t>
+          <t>7202LA35SO8</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -8403,7 +8403,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>74FCT3807EPYI8</t>
+          <t>7202LA35TP</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -8420,7 +8420,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>74FCT3807EQGI</t>
+          <t>7202LA50DB</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -8437,7 +8437,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>74FCT3807EQI</t>
+          <t>7202LA50J</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -8454,7 +8454,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>74FCT3807PY</t>
+          <t>7202LA50J8</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -8471,7 +8471,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>74FCT3807PY8</t>
+          <t>7202LA50JG</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -8488,7 +8488,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>74FCT3807PYG</t>
+          <t>7202LA50JG8</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -8505,7 +8505,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>74FCT3807PYG8</t>
+          <t>7202LA50LB</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -8522,7 +8522,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>74FCT3807PYGI</t>
+          <t>7202LA50P</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -8539,7 +8539,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>74FCT3807PYGI8</t>
+          <t>7202LA50TP</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -8556,7 +8556,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>74FCT3807Q</t>
+          <t>7202SA35D</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -8573,7 +8573,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>74FCT3807Q8</t>
+          <t>7202SA35J</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -8590,7 +8590,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>74FCT3807QC</t>
+          <t>7202SA35TC</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -8607,7 +8607,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>74FCT3807QGI8</t>
+          <t>7202SA50LB</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -8624,7 +8624,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>74FCT3807QI</t>
+          <t>7202SA50P</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -8641,7 +8641,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>74FCT3807S0</t>
+          <t>7202SA80P</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -8658,7 +8658,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>74FCT3807SNDGI</t>
+          <t>72031L25J</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -8675,7 +8675,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>74FCT3807SNDGI8</t>
+          <t>72031L25J8</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -8692,7 +8692,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>74FCT3807SO</t>
+          <t>72031L35D</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -8709,7 +8709,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>74FCT3807SO8</t>
+          <t>72031L35J</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -8726,7 +8726,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>74FCT3807SOG</t>
+          <t>72031L35J8</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -8743,7 +8743,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>74FCT3807SOG8</t>
+          <t>72031L50D</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -8760,7 +8760,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>74FCT3807SOGI</t>
+          <t>72031L50DM</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -8777,7 +8777,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>74FCT3807SOGI8</t>
+          <t>7203L12J</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -8794,7 +8794,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>74FCT3807SO-REEL</t>
+          <t>7203L12J8</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -8811,7 +8811,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>74FCT3807SPGGI</t>
+          <t>7203L12JG</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -8828,7 +8828,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>74FCT3807SPGGI8</t>
+          <t>7203L12JG8</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -8845,7 +8845,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>74FCT3807SPYGI</t>
+          <t>7203L12P</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -8862,7 +8862,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>74FCT3807SPYGI8</t>
+          <t>7203L12TP</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -8879,7 +8879,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>74FCT3807SQGI</t>
+          <t>7203L12TPG</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -8896,7 +8896,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>74FCT3807SQGI8</t>
+          <t>7203L15J</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -8913,7 +8913,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>74FCT3807SSOGI</t>
+          <t>7203L15J8</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -8930,7 +8930,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>74FCT3807SSOGI8</t>
+          <t>7203L15JGI</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -8947,7 +8947,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>74FCT521TSO</t>
+          <t>7203L15JI</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -8964,7 +8964,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>74FCT543TP</t>
+          <t>7203L15JI8</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -8981,7 +8981,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>74FCT543TPY</t>
+          <t>7203L15P</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -8998,7 +8998,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>74FCT573TLB</t>
+          <t>7203L15PDG</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -9015,7 +9015,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>74FCT573TPG</t>
+          <t>7203L15PI</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -9032,7 +9032,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>74FCT573TPY</t>
+          <t>7203L15TP</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -9049,7 +9049,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>74FCT573TSO</t>
+          <t>7203L15TPGI</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -9066,7 +9066,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>74FCT621TSO</t>
+          <t>7203L15TPI</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -9083,7 +9083,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>74FCT621TSOG</t>
+          <t>7203L20DB</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -9100,7 +9100,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>74FCT621TSOG8</t>
+          <t>7203L20J</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -9117,7 +9117,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>74FST6800PGG</t>
+          <t>7203L20LB</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -9134,7 +9134,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>74FST6800PGG8</t>
+          <t>7203L20LB8</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -9151,7 +9151,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>74FST6800Q</t>
+          <t>7203L20TDB</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -9168,7 +9168,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>74FST6800QG8</t>
+          <t>7203L20TP</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -9185,7 +9185,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>74LVC162244APA</t>
+          <t>7203L25J</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -9202,7 +9202,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>74LVC162244APAG</t>
+          <t>7203L25J8</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -9219,7 +9219,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>74LVC162244APAG8</t>
+          <t>7203L25JG</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -9236,7 +9236,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>74LVC162244APFG</t>
+          <t>7203L25JGI</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -9253,7 +9253,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>74LVC162244APV</t>
+          <t>7203L25JI</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -9270,7 +9270,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>74LVC162244APVG</t>
+          <t>7203L25JI8</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -9287,7 +9287,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>74LVC162244APVG8</t>
+          <t>7203L25P</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -9304,7 +9304,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>74LVC162245APA</t>
+          <t>7203L25PI</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -9321,7 +9321,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>74LVC162245APAG</t>
+          <t>7203L25TP</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -9338,7 +9338,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>74LVC162245APAG8</t>
+          <t>7203L25TPI</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -9355,7 +9355,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>74LVC162245APFG8</t>
+          <t>7203L30TDB</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -9372,7 +9372,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>74LVC162245APVG</t>
+          <t>7203L35J8</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -9389,7 +9389,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>74LVC162245APVG8</t>
+          <t>7203L35JG</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -9406,7 +9406,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>74LVC162245AX4PF</t>
+          <t>7203L35P</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -9423,7 +9423,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>74LVC16244APA</t>
+          <t>7203L35TP</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -9440,7 +9440,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>74LVC16244APAG</t>
+          <t>7203L40DB</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -9457,7 +9457,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>74LVC16244APAG8</t>
+          <t>7203L40LB</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -9474,7 +9474,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>74LVC16244APVG</t>
+          <t>7203L40LB8</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -9491,7 +9491,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>74LVC16244APVG8</t>
+          <t>7203L50J</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -9508,7 +9508,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>74LVC16244AX4PF</t>
+          <t>7203L50J8</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -9525,7 +9525,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>74LVC16245APA</t>
+          <t>7203L50JG</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -9542,7 +9542,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>74LVC16245APAG</t>
+          <t>7203L50P</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -9559,7 +9559,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>74LVC16245APAG8</t>
+          <t>7203L50TP</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -9576,7 +9576,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>74LVC16245APVG</t>
+          <t>7203LA12JG</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -9593,7 +9593,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>74LVC16245APVG8</t>
+          <t>7203S120P</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -9610,7 +9610,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>74LVC16373APAG</t>
+          <t>7203S30LB</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -9627,7 +9627,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>74LVC16373APAG8</t>
+          <t>7203S50DB</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -9644,7 +9644,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>74LVC16373APVG</t>
+          <t>7203S80J</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -9661,7 +9661,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>74LVC16373APVG8</t>
+          <t>7203S80P</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -9678,7 +9678,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>74LVC16373AX4PA</t>
+          <t>7204</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -9695,7 +9695,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>74LVC16374APA</t>
+          <t>7204-15J</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -9712,7 +9712,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>74LVC16374APAG</t>
+          <t>72041L25D</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -9729,7 +9729,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>74LVC16374APV</t>
+          <t>72041L25J</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -9746,7 +9746,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>74LVC16374APVG</t>
+          <t>72041L25J8</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -9763,7 +9763,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>74LVC16374AX4PV</t>
+          <t>72041L35D</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -9780,7 +9780,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>74LVCH162374APAG</t>
+          <t>72041L35J</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -9797,7 +9797,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>74LVCH162374APAG8</t>
+          <t>72041L35J8</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -9814,7 +9814,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>74LVCH162374AX4PA</t>
+          <t>72041L40DB</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -9831,7 +9831,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>74LVCH162374AX4PV</t>
+          <t>72041L40DM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -9848,7 +9848,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>74LVCH16245APAG</t>
+          <t>72041L50D</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -9865,7 +9865,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>74LVCH16245APAG8</t>
+          <t>72041L50DB</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -9882,7 +9882,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>74LVCH16245APV</t>
+          <t>72041L50J</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -9899,7 +9899,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>74LVCH16245APVG</t>
+          <t>72041L50J8</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -9916,7 +9916,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>74LVCH16245APVG8</t>
+          <t>7204L12J</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -9933,7 +9933,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>74LVCH16374APA</t>
+          <t>7204L12J8</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -9950,7 +9950,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>74LVCH16374APAG</t>
+          <t>7204L12JG</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -9967,7 +9967,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>74LVCH16374APAG8</t>
+          <t>7204L12JG8</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -9984,7 +9984,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>74LVCH16374APVG</t>
+          <t>7204L12P</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -10001,7 +10001,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>74LVCH16374APVG8</t>
+          <t>7204L12PDG</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -10018,7 +10018,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>74LVCH16543APA</t>
+          <t>7204L12PI</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -10035,7 +10035,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>74LVCH16543APAG</t>
+          <t>7204L12SO8</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -10052,7 +10052,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>74LVCH16543APAG8</t>
+          <t>7204L12SOG</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -10069,7 +10069,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>74LVCH16543APV</t>
+          <t>7204L12TP</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -10086,7 +10086,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>74LVCH32245ABF8</t>
+          <t>7204L12TPG</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -10103,7 +10103,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>74LVCH32245ABFG</t>
+          <t>7204L15J</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -10120,7 +10120,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>74LVCH32245ABFG8</t>
+          <t>7204L15J8</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -10137,7 +10137,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>74LVCHR162245APA</t>
+          <t>7204L15J8/C</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -10154,7 +10154,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>74LVCHR162245APAG</t>
+          <t>7204L15JI8</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -10171,7 +10171,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>74LVCHR162245APF</t>
+          <t>7204L15JT/R/C</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -10188,7 +10188,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>74LVCR162245APAG</t>
+          <t>7204L15P</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -10205,7 +10205,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>74LVCR162245APAG8</t>
+          <t>7204L15PDG</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -10222,7 +10222,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>74LVCR162245APVG</t>
+          <t>7204L15PDGI</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -10239,7 +10239,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>74LVCR162245AX4PF</t>
+          <t>7204L15PI</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -10256,7 +10256,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>80HCPS1432CHM</t>
+          <t>7204L15SO</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -10273,7 +10273,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>80HCPS1432CHMG</t>
+          <t>7204L15SO8</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -10290,7 +10290,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>80HCPS1432CHMGI</t>
+          <t>7204L15SOGI</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -10307,7 +10307,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>80HCPS1432CHMH</t>
+          <t>7204L15SOI</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -10324,7 +10324,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>80HCPS1432CHMHI</t>
+          <t>7204L15SOI8</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -10341,7 +10341,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>80HCPS1432CHMI</t>
+          <t>7204L15TP</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
